--- a/纸张登记表.xlsx
+++ b/纸张登记表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huawei\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huawei\Documents\git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC713D2-7D42-4339-9BB2-40DCB57DD247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA0B922-FBAD-4F4C-821B-AC237C836D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{B8B51B81-5454-48AC-B027-51F5A61EAD71}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="29">
   <si>
     <t>纸张登记表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -139,6 +139,10 @@
     <t>_______________________________________</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -169,7 +173,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -643,13 +647,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -695,36 +749,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -737,46 +761,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
@@ -788,20 +788,107 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1126,32 +1213,32 @@
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="19" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="21"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="38"/>
     </row>
     <row r="2" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="24"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="41"/>
     </row>
     <row r="3" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
@@ -1163,10 +1250,10 @@
       <c r="C3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="26"/>
+      <c r="E3" s="33"/>
       <c r="F3" s="11" t="s">
         <v>1</v>
       </c>
@@ -1176,10 +1263,10 @@
       <c r="H3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="I3" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="26"/>
+      <c r="J3" s="33"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -1189,10 +1276,10 @@
       <c r="C4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="28"/>
+      <c r="E4" s="31"/>
       <c r="F4" s="5" t="s">
         <v>5</v>
       </c>
@@ -1200,10 +1287,10 @@
       <c r="H4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="27" t="s">
+      <c r="I4" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="28"/>
+      <c r="J4" s="31"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
@@ -1211,15 +1298,15 @@
       <c r="C5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="26"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="33"/>
       <c r="F5" s="6"/>
       <c r="G5" s="1"/>
       <c r="H5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="29"/>
-      <c r="J5" s="26"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
@@ -1227,15 +1314,15 @@
       <c r="C6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="26"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="33"/>
       <c r="F6" s="6"/>
       <c r="G6" s="1"/>
       <c r="H6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="29"/>
-      <c r="J6" s="26"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="33"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
@@ -1243,15 +1330,15 @@
       <c r="C7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="26"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="33"/>
       <c r="F7" s="6"/>
       <c r="G7" s="1"/>
       <c r="H7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="29"/>
-      <c r="J7" s="26"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="33"/>
     </row>
     <row r="8" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
@@ -1259,15 +1346,15 @@
       <c r="C8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="31"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="35"/>
       <c r="F8" s="7"/>
       <c r="G8" s="3"/>
       <c r="H8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="30"/>
-      <c r="J8" s="31"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="35"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
@@ -1277,8 +1364,8 @@
       <c r="C9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="16"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="44"/>
       <c r="F9" s="8" t="s">
         <v>11</v>
       </c>
@@ -1286,8 +1373,8 @@
       <c r="H9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="44"/>
     </row>
     <row r="10" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
@@ -1295,44 +1382,44 @@
       <c r="C10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="18"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="46"/>
       <c r="F10" s="7"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="17"/>
-      <c r="J10" s="18"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="46"/>
     </row>
     <row r="11" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="19" t="s">
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="21"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="38"/>
     </row>
     <row r="13" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="24"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="41"/>
     </row>
     <row r="14" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
@@ -1344,10 +1431,10 @@
       <c r="C14" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="26"/>
+      <c r="E14" s="33"/>
       <c r="F14" s="11" t="s">
         <v>1</v>
       </c>
@@ -1357,10 +1444,10 @@
       <c r="H14" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="25" t="s">
+      <c r="I14" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="26"/>
+      <c r="J14" s="33"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
@@ -1370,10 +1457,10 @@
       <c r="C15" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="28"/>
+      <c r="E15" s="31"/>
       <c r="F15" s="5" t="s">
         <v>5</v>
       </c>
@@ -1381,10 +1468,10 @@
       <c r="H15" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I15" s="27" t="s">
+      <c r="I15" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="J15" s="28"/>
+      <c r="J15" s="31"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
@@ -1392,15 +1479,15 @@
       <c r="C16" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="29"/>
-      <c r="E16" s="26"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="33"/>
       <c r="F16" s="6"/>
       <c r="G16" s="1"/>
       <c r="H16" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="29"/>
-      <c r="J16" s="26"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="33"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
@@ -1408,15 +1495,15 @@
       <c r="C17" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="29"/>
-      <c r="E17" s="26"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="33"/>
       <c r="F17" s="6"/>
       <c r="G17" s="1"/>
       <c r="H17" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I17" s="29"/>
-      <c r="J17" s="26"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="33"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
@@ -1424,15 +1511,15 @@
       <c r="C18" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="29"/>
-      <c r="E18" s="26"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="33"/>
       <c r="F18" s="6"/>
       <c r="G18" s="1"/>
       <c r="H18" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I18" s="29"/>
-      <c r="J18" s="26"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="33"/>
     </row>
     <row r="19" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
@@ -1440,15 +1527,15 @@
       <c r="C19" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="31"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="35"/>
       <c r="F19" s="7"/>
       <c r="G19" s="3"/>
       <c r="H19" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I19" s="30"/>
-      <c r="J19" s="31"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="35"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
@@ -1458,8 +1545,8 @@
       <c r="C20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="16"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="44"/>
       <c r="F20" s="8" t="s">
         <v>11</v>
       </c>
@@ -1467,8 +1554,8 @@
       <c r="H20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I20" s="15"/>
-      <c r="J20" s="16"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="44"/>
     </row>
     <row r="21" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
@@ -1476,44 +1563,44 @@
       <c r="C21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="18"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="46"/>
       <c r="F21" s="7"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I21" s="17"/>
-      <c r="J21" s="18"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="46"/>
     </row>
     <row r="22" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="19" t="s">
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="21"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="38"/>
     </row>
     <row r="24" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="22"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="24"/>
+      <c r="A24" s="39"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="41"/>
     </row>
     <row r="25" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
@@ -1525,10 +1612,10 @@
       <c r="C25" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="25" t="s">
+      <c r="D25" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="E25" s="26"/>
+      <c r="E25" s="33"/>
       <c r="F25" s="11" t="s">
         <v>1</v>
       </c>
@@ -1538,10 +1625,10 @@
       <c r="H25" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="I25" s="25" t="s">
+      <c r="I25" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="J25" s="26"/>
+      <c r="J25" s="33"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
@@ -1551,10 +1638,10 @@
       <c r="C26" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="28"/>
+      <c r="E26" s="31"/>
       <c r="F26" s="5" t="s">
         <v>5</v>
       </c>
@@ -1562,10 +1649,10 @@
       <c r="H26" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I26" s="27" t="s">
+      <c r="I26" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="J26" s="28"/>
+      <c r="J26" s="31"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
@@ -1573,15 +1660,15 @@
       <c r="C27" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="29"/>
-      <c r="E27" s="26"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="33"/>
       <c r="F27" s="6"/>
       <c r="G27" s="1"/>
       <c r="H27" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I27" s="29"/>
-      <c r="J27" s="26"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="33"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
@@ -1589,15 +1676,15 @@
       <c r="C28" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="29"/>
-      <c r="E28" s="26"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="33"/>
       <c r="F28" s="6"/>
       <c r="G28" s="1"/>
       <c r="H28" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I28" s="29"/>
-      <c r="J28" s="26"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="33"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
@@ -1605,15 +1692,15 @@
       <c r="C29" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="29"/>
-      <c r="E29" s="26"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="33"/>
       <c r="F29" s="6"/>
       <c r="G29" s="1"/>
       <c r="H29" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I29" s="29"/>
-      <c r="J29" s="26"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="33"/>
     </row>
     <row r="30" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
@@ -1621,15 +1708,15 @@
       <c r="C30" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="30"/>
-      <c r="E30" s="31"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="35"/>
       <c r="F30" s="7"/>
       <c r="G30" s="3"/>
       <c r="H30" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I30" s="30"/>
-      <c r="J30" s="31"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="35"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
@@ -1639,8 +1726,8 @@
       <c r="C31" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="15"/>
-      <c r="E31" s="16"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="44"/>
       <c r="F31" s="8" t="s">
         <v>11</v>
       </c>
@@ -1648,8 +1735,8 @@
       <c r="H31" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I31" s="15"/>
-      <c r="J31" s="16"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="44"/>
     </row>
     <row r="32" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
@@ -1657,44 +1744,44 @@
       <c r="C32" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="17"/>
-      <c r="E32" s="18"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="46"/>
       <c r="F32" s="7"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I32" s="17"/>
-      <c r="J32" s="18"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="46"/>
     </row>
     <row r="33" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="19" t="s">
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="21"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="38"/>
     </row>
     <row r="35" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="22"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="24"/>
+      <c r="A35" s="39"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="41"/>
     </row>
     <row r="36" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
@@ -1706,10 +1793,10 @@
       <c r="C36" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D36" s="25" t="s">
+      <c r="D36" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="E36" s="26"/>
+      <c r="E36" s="33"/>
       <c r="F36" s="11" t="s">
         <v>1</v>
       </c>
@@ -1719,10 +1806,10 @@
       <c r="H36" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="I36" s="25" t="s">
+      <c r="I36" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="J36" s="26"/>
+      <c r="J36" s="33"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
@@ -1732,10 +1819,10 @@
       <c r="C37" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D37" s="27" t="s">
+      <c r="D37" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E37" s="28"/>
+      <c r="E37" s="31"/>
       <c r="F37" s="5" t="s">
         <v>5</v>
       </c>
@@ -1743,10 +1830,10 @@
       <c r="H37" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I37" s="27" t="s">
+      <c r="I37" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="J37" s="28"/>
+      <c r="J37" s="31"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
@@ -1754,15 +1841,15 @@
       <c r="C38" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="29"/>
-      <c r="E38" s="26"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="33"/>
       <c r="F38" s="6"/>
       <c r="G38" s="1"/>
       <c r="H38" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I38" s="29"/>
-      <c r="J38" s="26"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="33"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
@@ -1770,15 +1857,15 @@
       <c r="C39" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D39" s="29"/>
-      <c r="E39" s="26"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="33"/>
       <c r="F39" s="6"/>
       <c r="G39" s="1"/>
       <c r="H39" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I39" s="29"/>
-      <c r="J39" s="26"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="33"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
@@ -1786,15 +1873,15 @@
       <c r="C40" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D40" s="29"/>
-      <c r="E40" s="26"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="33"/>
       <c r="F40" s="6"/>
       <c r="G40" s="1"/>
       <c r="H40" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I40" s="29"/>
-      <c r="J40" s="26"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="33"/>
     </row>
     <row r="41" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
@@ -1802,15 +1889,15 @@
       <c r="C41" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D41" s="30"/>
-      <c r="E41" s="31"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="35"/>
       <c r="F41" s="7"/>
       <c r="G41" s="3"/>
       <c r="H41" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I41" s="30"/>
-      <c r="J41" s="31"/>
+      <c r="I41" s="34"/>
+      <c r="J41" s="35"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
@@ -1820,8 +1907,8 @@
       <c r="C42" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D42" s="15"/>
-      <c r="E42" s="16"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="44"/>
       <c r="F42" s="8" t="s">
         <v>11</v>
       </c>
@@ -1829,8 +1916,8 @@
       <c r="H42" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I42" s="15"/>
-      <c r="J42" s="16"/>
+      <c r="I42" s="43"/>
+      <c r="J42" s="44"/>
     </row>
     <row r="43" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7"/>
@@ -1838,44 +1925,44 @@
       <c r="C43" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D43" s="17"/>
-      <c r="E43" s="18"/>
+      <c r="D43" s="45"/>
+      <c r="E43" s="46"/>
       <c r="F43" s="7"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I43" s="17"/>
-      <c r="J43" s="18"/>
+      <c r="I43" s="45"/>
+      <c r="J43" s="46"/>
     </row>
     <row r="44" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="19" t="s">
+      <c r="A45" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B45" s="20"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="19" t="s">
+      <c r="B45" s="37"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="21"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="37"/>
+      <c r="I45" s="37"/>
+      <c r="J45" s="38"/>
     </row>
     <row r="46" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="22"/>
-      <c r="B46" s="23"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="23"/>
-      <c r="I46" s="23"/>
-      <c r="J46" s="24"/>
+      <c r="A46" s="39"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="41"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="40"/>
+      <c r="H46" s="40"/>
+      <c r="I46" s="40"/>
+      <c r="J46" s="41"/>
     </row>
     <row r="47" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="11" t="s">
@@ -1887,10 +1974,10 @@
       <c r="C47" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D47" s="25" t="s">
+      <c r="D47" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="E47" s="26"/>
+      <c r="E47" s="33"/>
       <c r="F47" s="11" t="s">
         <v>1</v>
       </c>
@@ -1900,10 +1987,10 @@
       <c r="H47" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="I47" s="25" t="s">
+      <c r="I47" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="J47" s="26"/>
+      <c r="J47" s="33"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
@@ -1913,10 +2000,10 @@
       <c r="C48" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D48" s="27" t="s">
+      <c r="D48" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E48" s="28"/>
+      <c r="E48" s="31"/>
       <c r="F48" s="5" t="s">
         <v>5</v>
       </c>
@@ -1924,10 +2011,10 @@
       <c r="H48" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I48" s="27" t="s">
+      <c r="I48" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="J48" s="28"/>
+      <c r="J48" s="31"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
@@ -1935,15 +2022,15 @@
       <c r="C49" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D49" s="29"/>
-      <c r="E49" s="26"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="33"/>
       <c r="F49" s="6"/>
       <c r="G49" s="1"/>
       <c r="H49" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I49" s="29"/>
-      <c r="J49" s="26"/>
+      <c r="I49" s="32"/>
+      <c r="J49" s="33"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
@@ -1951,15 +2038,15 @@
       <c r="C50" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D50" s="29"/>
-      <c r="E50" s="26"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="33"/>
       <c r="F50" s="6"/>
       <c r="G50" s="1"/>
       <c r="H50" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I50" s="29"/>
-      <c r="J50" s="26"/>
+      <c r="I50" s="32"/>
+      <c r="J50" s="33"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
@@ -1967,15 +2054,15 @@
       <c r="C51" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D51" s="29"/>
-      <c r="E51" s="26"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="33"/>
       <c r="F51" s="6"/>
       <c r="G51" s="1"/>
       <c r="H51" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I51" s="29"/>
-      <c r="J51" s="26"/>
+      <c r="I51" s="32"/>
+      <c r="J51" s="33"/>
     </row>
     <row r="52" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="7"/>
@@ -1983,15 +2070,15 @@
       <c r="C52" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D52" s="30"/>
-      <c r="E52" s="31"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="35"/>
       <c r="F52" s="7"/>
       <c r="G52" s="3"/>
       <c r="H52" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I52" s="30"/>
-      <c r="J52" s="31"/>
+      <c r="I52" s="34"/>
+      <c r="J52" s="35"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
@@ -2001,8 +2088,8 @@
       <c r="C53" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D53" s="15"/>
-      <c r="E53" s="16"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="44"/>
       <c r="F53" s="8" t="s">
         <v>11</v>
       </c>
@@ -2010,8 +2097,8 @@
       <c r="H53" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="15"/>
-      <c r="J53" s="16"/>
+      <c r="I53" s="43"/>
+      <c r="J53" s="44"/>
     </row>
     <row r="54" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="7"/>
@@ -2019,58 +2106,18 @@
       <c r="C54" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D54" s="17"/>
-      <c r="E54" s="18"/>
+      <c r="D54" s="45"/>
+      <c r="E54" s="46"/>
       <c r="F54" s="7"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I54" s="17"/>
-      <c r="J54" s="18"/>
+      <c r="I54" s="45"/>
+      <c r="J54" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="D4:E8"/>
-    <mergeCell ref="F1:J2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="D26:E30"/>
-    <mergeCell ref="I26:J30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="A23:E24"/>
-    <mergeCell ref="F23:J24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="D37:E41"/>
-    <mergeCell ref="I37:J41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="A12:E13"/>
-    <mergeCell ref="F12:J13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="D15:E19"/>
-    <mergeCell ref="I15:J19"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="A34:E35"/>
-    <mergeCell ref="F34:J35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="I36:J36"/>
     <mergeCell ref="D53:E53"/>
     <mergeCell ref="I53:J53"/>
     <mergeCell ref="D54:E54"/>
@@ -2081,6 +2128,46 @@
     <mergeCell ref="I47:J47"/>
     <mergeCell ref="D48:E52"/>
     <mergeCell ref="I48:J52"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="A34:E35"/>
+    <mergeCell ref="F34:J35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="D37:E41"/>
+    <mergeCell ref="I37:J41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="D26:E30"/>
+    <mergeCell ref="I26:J30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="A23:E24"/>
+    <mergeCell ref="F23:J24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="A12:E13"/>
+    <mergeCell ref="F12:J13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="D15:E19"/>
+    <mergeCell ref="I15:J19"/>
+    <mergeCell ref="D4:E8"/>
+    <mergeCell ref="F1:J2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="D3:E3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2090,10 +2177,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA3E2906-BE4C-4024-A81F-D34A2DCF1B0B}">
-  <dimension ref="A1:J54"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A31" zoomScale="85" zoomScaleNormal="160" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42:E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2103,32 +2190,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="32" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="38"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="53"/>
     </row>
     <row r="2" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="39"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="54"/>
     </row>
     <row r="3" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
@@ -2140,10 +2227,10 @@
       <c r="C3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="26"/>
+      <c r="E3" s="33"/>
       <c r="F3" s="11" t="s">
         <v>1</v>
       </c>
@@ -2153,30 +2240,30 @@
       <c r="H3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="I3" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="26"/>
+      <c r="J3" s="33"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="28"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="31"/>
       <c r="F4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="28"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="31"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -2188,10 +2275,10 @@
       <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="50"/>
+      <c r="E5" s="29"/>
       <c r="F5" s="6" t="s">
         <v>17</v>
       </c>
@@ -2201,916 +2288,622 @@
       <c r="H5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="47" t="s">
+      <c r="I5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="50"/>
+      <c r="J5" s="29"/>
     </row>
     <row r="6" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="43" t="s">
+      <c r="B6" s="26"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="44"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="40"/>
+      <c r="G6" s="26"/>
+      <c r="J6" s="23"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="32" t="s">
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="28"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="31"/>
     </row>
     <row r="8" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="35"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="31"/>
+      <c r="A8" s="50"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="35"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="42"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="24"/>
       <c r="F9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="42"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="24"/>
     </row>
     <row r="10" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="30" t="s">
+      <c r="C10" s="47"/>
+      <c r="D10" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="45" t="s">
+      <c r="E10" s="35"/>
+      <c r="F10" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="30" t="s">
+      <c r="G10" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="37"/>
-      <c r="I10" s="30" t="s">
+      <c r="H10" s="47"/>
+      <c r="I10" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="31"/>
-    </row>
-    <row r="11" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="J10" s="35"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="31"/>
+    </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="57"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="33"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="57"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="33"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="57"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="33"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="57"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="33"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="57"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="33"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="57"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="33"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="57"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="33"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="57"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="33"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="57"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="33"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="57"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="33"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="57"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="33"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="57"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="33"/>
+    </row>
+    <row r="24" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="58"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="35"/>
+    </row>
+    <row r="31" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="32" t="s">
+      <c r="B32" s="48"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="38"/>
-    </row>
-    <row r="13" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="35"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="39"/>
-    </row>
-    <row r="14" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="53"/>
+    </row>
+    <row r="33" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="50"/>
+      <c r="B33" s="51"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="54"/>
+    </row>
+    <row r="34" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B34" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C34" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D34" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="26"/>
-      <c r="F14" s="11" t="s">
+      <c r="E34" s="16"/>
+      <c r="F34" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G34" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="H14" s="13" t="s">
+      <c r="H34" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="25" t="s">
+      <c r="I34" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="26"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="J34" s="16"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B35" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="5" t="s">
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="27" t="s">
+      <c r="G35" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="28"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="18"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="47" t="s">
+      <c r="D36" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="50"/>
-      <c r="F16" s="6" t="s">
+      <c r="E36" s="29"/>
+      <c r="F36" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G36" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H36" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I16" s="47" t="s">
+      <c r="I36" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="50"/>
-    </row>
-    <row r="17" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="43" t="s">
+      <c r="J36" s="29"/>
+    </row>
+    <row r="37" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="43" t="s">
+      <c r="B37" s="26"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="44"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="40"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="32" t="s">
+      <c r="G37" s="26"/>
+      <c r="J37" s="23"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="32" t="s">
+      <c r="B38" s="48"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="28"/>
-    </row>
-    <row r="19" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="35"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="31"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="G38" s="48"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="48"/>
+      <c r="J38" s="31"/>
+    </row>
+    <row r="39" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="50"/>
+      <c r="B39" s="51"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="50"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="51"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="35"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="5" t="s">
+      <c r="B40" s="28"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="42"/>
-    </row>
-    <row r="21" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="45" t="s">
+      <c r="G40" s="28"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="24"/>
+    </row>
+    <row r="41" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B41" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="37"/>
-      <c r="D21" s="30" t="s">
+      <c r="C41" s="22"/>
+      <c r="D41" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="31"/>
-      <c r="F21" s="45" t="s">
+      <c r="E41" s="20"/>
+      <c r="F41" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="30" t="s">
+      <c r="G41" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H21" s="37"/>
-      <c r="I21" s="30" t="s">
+      <c r="H41" s="22"/>
+      <c r="I41" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="J21" s="31"/>
-    </row>
-    <row r="22" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="35"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="25" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="E25" s="26"/>
-      <c r="F25" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="I25" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="J25" s="26"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="28"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" s="50"/>
-      <c r="F27" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I27" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="J27" s="50"/>
-    </row>
-    <row r="28" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="B28" s="44"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="G28" s="44"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="40"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="28"/>
-    </row>
-    <row r="30" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="35"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="31"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" s="48"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="42"/>
-    </row>
-    <row r="32" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="B32" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C32" s="37"/>
-      <c r="D32" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="E32" s="31"/>
-      <c r="F32" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="G32" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="H32" s="37"/>
-      <c r="I32" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="J32" s="31"/>
-    </row>
-    <row r="33" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="38"/>
-    </row>
-    <row r="35" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="35"/>
-      <c r="B35" s="36"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="37"/>
-      <c r="J35" s="39"/>
-    </row>
-    <row r="36" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D36" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="E36" s="26"/>
-      <c r="F36" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="G36" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="H36" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="I36" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="J36" s="26"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B37" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="28"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D38" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="E38" s="50"/>
-      <c r="F38" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I38" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="J38" s="50"/>
-    </row>
-    <row r="39" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="B39" s="44"/>
-      <c r="C39" s="46"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="40"/>
-      <c r="F39" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="G39" s="44"/>
-      <c r="H39" s="46"/>
-      <c r="I39" s="41"/>
-      <c r="J39" s="40"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="B40" s="33"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="G40" s="33"/>
-      <c r="H40" s="33"/>
-      <c r="I40" s="33"/>
-      <c r="J40" s="28"/>
-    </row>
-    <row r="41" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="35"/>
-      <c r="B41" s="36"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="36"/>
-      <c r="J41" s="31"/>
+      <c r="J41" s="20"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>23</v>
+      <c r="A42" s="56" t="s">
+        <v>28</v>
       </c>
       <c r="B42" s="48"/>
       <c r="C42" s="48"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="42"/>
-      <c r="F42" s="5" t="s">
-        <v>23</v>
+      <c r="D42" s="48"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="59" t="s">
+        <v>28</v>
       </c>
       <c r="G42" s="48"/>
       <c r="H42" s="48"/>
-      <c r="I42" s="49"/>
-      <c r="J42" s="42"/>
-    </row>
-    <row r="43" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="B43" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C43" s="37"/>
-      <c r="D43" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="E43" s="31"/>
-      <c r="F43" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="G43" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="H43" s="37"/>
-      <c r="I43" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="J43" s="31"/>
-    </row>
-    <row r="44" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="I42" s="48"/>
+      <c r="J42" s="31"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="57"/>
+      <c r="B43" s="55"/>
+      <c r="C43" s="55"/>
+      <c r="D43" s="55"/>
+      <c r="E43" s="55"/>
+      <c r="F43" s="60"/>
+      <c r="G43" s="55"/>
+      <c r="H43" s="55"/>
+      <c r="I43" s="55"/>
+      <c r="J43" s="33"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="57"/>
+      <c r="B44" s="55"/>
+      <c r="C44" s="55"/>
+      <c r="D44" s="55"/>
+      <c r="E44" s="55"/>
+      <c r="F44" s="60"/>
+      <c r="G44" s="55"/>
+      <c r="H44" s="55"/>
+      <c r="I44" s="55"/>
+      <c r="J44" s="33"/>
+    </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="B45" s="33"/>
-      <c r="C45" s="33"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="G45" s="33"/>
-      <c r="H45" s="33"/>
-      <c r="I45" s="34"/>
-      <c r="J45" s="38"/>
-    </row>
-    <row r="46" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="35"/>
-      <c r="B46" s="36"/>
-      <c r="C46" s="36"/>
-      <c r="D46" s="37"/>
-      <c r="E46" s="39"/>
-      <c r="F46" s="35"/>
-      <c r="G46" s="36"/>
-      <c r="H46" s="36"/>
-      <c r="I46" s="37"/>
-      <c r="J46" s="39"/>
-    </row>
-    <row r="47" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D47" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="E47" s="26"/>
-      <c r="F47" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="G47" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="H47" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="I47" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="J47" s="26"/>
+      <c r="A45" s="57"/>
+      <c r="B45" s="55"/>
+      <c r="C45" s="55"/>
+      <c r="D45" s="55"/>
+      <c r="E45" s="55"/>
+      <c r="F45" s="60"/>
+      <c r="G45" s="55"/>
+      <c r="H45" s="55"/>
+      <c r="I45" s="55"/>
+      <c r="J45" s="33"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="57"/>
+      <c r="B46" s="55"/>
+      <c r="C46" s="55"/>
+      <c r="D46" s="55"/>
+      <c r="E46" s="55"/>
+      <c r="F46" s="60"/>
+      <c r="G46" s="55"/>
+      <c r="H46" s="55"/>
+      <c r="I46" s="55"/>
+      <c r="J46" s="33"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="57"/>
+      <c r="B47" s="55"/>
+      <c r="C47" s="55"/>
+      <c r="D47" s="55"/>
+      <c r="E47" s="55"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="55"/>
+      <c r="H47" s="55"/>
+      <c r="I47" s="55"/>
+      <c r="J47" s="33"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B48" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C48" s="33"/>
-      <c r="D48" s="33"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G48" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="H48" s="33"/>
-      <c r="I48" s="33"/>
-      <c r="J48" s="28"/>
+      <c r="A48" s="57"/>
+      <c r="B48" s="55"/>
+      <c r="C48" s="55"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="60"/>
+      <c r="G48" s="55"/>
+      <c r="H48" s="55"/>
+      <c r="I48" s="55"/>
+      <c r="J48" s="33"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D49" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="E49" s="50"/>
-      <c r="F49" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I49" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="J49" s="50"/>
-    </row>
-    <row r="50" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="B50" s="44"/>
-      <c r="C50" s="46"/>
-      <c r="D50" s="41"/>
-      <c r="E50" s="40"/>
-      <c r="F50" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="G50" s="44"/>
-      <c r="H50" s="46"/>
-      <c r="I50" s="41"/>
-      <c r="J50" s="40"/>
+      <c r="A49" s="57"/>
+      <c r="B49" s="55"/>
+      <c r="C49" s="55"/>
+      <c r="D49" s="55"/>
+      <c r="E49" s="55"/>
+      <c r="F49" s="60"/>
+      <c r="G49" s="55"/>
+      <c r="H49" s="55"/>
+      <c r="I49" s="55"/>
+      <c r="J49" s="33"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="57"/>
+      <c r="B50" s="55"/>
+      <c r="C50" s="55"/>
+      <c r="D50" s="55"/>
+      <c r="E50" s="55"/>
+      <c r="F50" s="60"/>
+      <c r="G50" s="55"/>
+      <c r="H50" s="55"/>
+      <c r="I50" s="55"/>
+      <c r="J50" s="33"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="B51" s="33"/>
-      <c r="C51" s="33"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="G51" s="33"/>
-      <c r="H51" s="33"/>
-      <c r="I51" s="33"/>
-      <c r="J51" s="28"/>
-    </row>
-    <row r="52" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="35"/>
-      <c r="B52" s="36"/>
-      <c r="C52" s="36"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="31"/>
-      <c r="F52" s="35"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="36"/>
-      <c r="J52" s="31"/>
+      <c r="A51" s="57"/>
+      <c r="B51" s="55"/>
+      <c r="C51" s="55"/>
+      <c r="D51" s="55"/>
+      <c r="E51" s="55"/>
+      <c r="F51" s="60"/>
+      <c r="G51" s="55"/>
+      <c r="H51" s="55"/>
+      <c r="I51" s="55"/>
+      <c r="J51" s="33"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="57"/>
+      <c r="B52" s="55"/>
+      <c r="C52" s="55"/>
+      <c r="D52" s="55"/>
+      <c r="E52" s="55"/>
+      <c r="F52" s="60"/>
+      <c r="G52" s="55"/>
+      <c r="H52" s="55"/>
+      <c r="I52" s="55"/>
+      <c r="J52" s="33"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B53" s="48"/>
-      <c r="C53" s="48"/>
-      <c r="D53" s="49"/>
-      <c r="E53" s="42"/>
-      <c r="F53" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G53" s="48"/>
-      <c r="H53" s="48"/>
-      <c r="I53" s="49"/>
-      <c r="J53" s="42"/>
-    </row>
-    <row r="54" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="B54" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C54" s="37"/>
-      <c r="D54" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="E54" s="31"/>
-      <c r="F54" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="G54" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="H54" s="37"/>
-      <c r="I54" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="J54" s="31"/>
+      <c r="A53" s="57"/>
+      <c r="B53" s="55"/>
+      <c r="C53" s="55"/>
+      <c r="D53" s="55"/>
+      <c r="E53" s="55"/>
+      <c r="F53" s="60"/>
+      <c r="G53" s="55"/>
+      <c r="H53" s="55"/>
+      <c r="I53" s="55"/>
+      <c r="J53" s="33"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="57"/>
+      <c r="B54" s="55"/>
+      <c r="C54" s="55"/>
+      <c r="D54" s="55"/>
+      <c r="E54" s="55"/>
+      <c r="F54" s="60"/>
+      <c r="G54" s="55"/>
+      <c r="H54" s="55"/>
+      <c r="I54" s="55"/>
+      <c r="J54" s="33"/>
+    </row>
+    <row r="55" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="58"/>
+      <c r="B55" s="51"/>
+      <c r="C55" s="51"/>
+      <c r="D55" s="51"/>
+      <c r="E55" s="51"/>
+      <c r="F55" s="61"/>
+      <c r="G55" s="51"/>
+      <c r="H55" s="51"/>
+      <c r="I55" s="51"/>
+      <c r="J55" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="70">
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="G48:J48"/>
-    <mergeCell ref="A51:E52"/>
-    <mergeCell ref="F51:J52"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="A45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:I46"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="G37:J37"/>
-    <mergeCell ref="A40:E41"/>
-    <mergeCell ref="F40:J41"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="A34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:I35"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="A29:E30"/>
-    <mergeCell ref="F29:J30"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="A18:E19"/>
-    <mergeCell ref="F18:J19"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="A12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="G4:J4"/>
+  <mergeCells count="28">
     <mergeCell ref="F7:J8"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D10:E10"/>
@@ -3118,6 +2911,27 @@
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="A7:E8"/>
     <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="A11:A24"/>
+    <mergeCell ref="B11:E24"/>
+    <mergeCell ref="F11:F24"/>
+    <mergeCell ref="G11:J24"/>
+    <mergeCell ref="A32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:I33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="A38:E39"/>
+    <mergeCell ref="F38:J39"/>
+    <mergeCell ref="A42:A55"/>
+    <mergeCell ref="B42:E55"/>
+    <mergeCell ref="F42:F55"/>
+    <mergeCell ref="G42:J55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
